--- a/Houston-Workers-Earnings.xlsx
+++ b/Houston-Workers-Earnings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sailendra/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiosavorgnan/Desktop/learnpython.md/Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89AB92BF-8B3E-EC4B-B684-204EC96A8358}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF250E1-5C6A-CD45-9DEF-382E11F0D42A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{37A2EAE4-4277-3849-9DCB-B4379C21B602}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16640" xr2:uid="{37A2EAE4-4277-3849-9DCB-B4379C21B602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>Table 6.1: Energy and Related Clusters Drive Houston Workers’ Earnings</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>U.S.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Energy and mining</t>
   </si>
@@ -85,25 +73,28 @@
   </si>
   <si>
     <t>Average earnings (total)</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>2017(Houston)</t>
+  </si>
+  <si>
+    <t>2017(US)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="17"/>
-      <color rgb="FFF9F7F3"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="17"/>
@@ -132,12 +123,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,13 +441,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01298C98-EDB2-E045-ACCD-09FB7150E06D}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -469,396 +458,375 @@
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22">
+    <row r="1" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="22">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>119894</v>
+      </c>
+      <c r="C2" s="2">
+        <v>125444</v>
+      </c>
+      <c r="D2" s="2">
+        <v>124557</v>
+      </c>
+      <c r="E2" s="2">
+        <v>123673</v>
+      </c>
+      <c r="F2" s="2">
+        <v>120706</v>
+      </c>
+      <c r="G2" s="2">
+        <v>80900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="2">
+        <v>97114</v>
+      </c>
+      <c r="C3" s="2">
+        <v>101846</v>
+      </c>
+      <c r="D3" s="2">
+        <v>102492</v>
+      </c>
+      <c r="E3" s="2">
+        <v>103066</v>
+      </c>
+      <c r="F3" s="2">
+        <v>103421</v>
+      </c>
+      <c r="G3" s="2">
+        <v>70059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2" t="s">
+      <c r="B4" s="2">
+        <v>63695</v>
+      </c>
+      <c r="C4" s="2">
+        <v>67507</v>
+      </c>
+      <c r="D4" s="2">
+        <v>67773</v>
+      </c>
+      <c r="E4" s="2">
+        <v>65234</v>
+      </c>
+      <c r="F4" s="2">
+        <v>66269</v>
+      </c>
+      <c r="G4" s="2">
+        <v>55830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="22">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2016</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2017</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="2">
+        <v>100730</v>
+      </c>
+      <c r="C5" s="2">
+        <v>103317</v>
+      </c>
+      <c r="D5" s="2">
+        <v>106506</v>
+      </c>
+      <c r="E5" s="2">
+        <v>111148</v>
+      </c>
+      <c r="F5" s="2">
+        <v>113496</v>
+      </c>
+      <c r="G5" s="2">
+        <v>72887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>119894</v>
-      </c>
-      <c r="C4" s="3">
-        <v>125444</v>
-      </c>
-      <c r="D4" s="3">
-        <v>124557</v>
-      </c>
-      <c r="E4" s="3">
-        <v>123673</v>
-      </c>
-      <c r="F4" s="3">
-        <v>120706</v>
-      </c>
-      <c r="G4" s="3">
-        <v>80900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="22">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="2">
+        <v>65995</v>
+      </c>
+      <c r="C6" s="2">
+        <v>69062</v>
+      </c>
+      <c r="D6" s="2">
+        <v>72861</v>
+      </c>
+      <c r="E6" s="2">
+        <v>73834</v>
+      </c>
+      <c r="F6" s="2">
+        <v>72883</v>
+      </c>
+      <c r="G6" s="2">
+        <v>60742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
-        <v>97114</v>
-      </c>
-      <c r="C5" s="3">
-        <v>101846</v>
-      </c>
-      <c r="D5" s="3">
-        <v>102492</v>
-      </c>
-      <c r="E5" s="3">
-        <v>103066</v>
-      </c>
-      <c r="F5" s="3">
-        <v>103421</v>
-      </c>
-      <c r="G5" s="3">
-        <v>70059</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="2">
+        <v>119242</v>
+      </c>
+      <c r="C7" s="2">
+        <v>124631</v>
+      </c>
+      <c r="D7" s="2">
+        <v>126614</v>
+      </c>
+      <c r="E7" s="2">
+        <v>124790</v>
+      </c>
+      <c r="F7" s="2">
+        <v>134235</v>
+      </c>
+      <c r="G7" s="2">
+        <v>107188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>63695</v>
-      </c>
-      <c r="C6" s="3">
-        <v>67507</v>
-      </c>
-      <c r="D6" s="3">
-        <v>67773</v>
-      </c>
-      <c r="E6" s="3">
-        <v>65234</v>
-      </c>
-      <c r="F6" s="3">
-        <v>66269</v>
-      </c>
-      <c r="G6" s="3">
-        <v>55830</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="22">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="2">
+        <v>76050</v>
+      </c>
+      <c r="C8" s="2">
+        <v>84102</v>
+      </c>
+      <c r="D8" s="2">
+        <v>77871</v>
+      </c>
+      <c r="E8" s="2">
+        <v>79562</v>
+      </c>
+      <c r="F8" s="2">
+        <v>80508</v>
+      </c>
+      <c r="G8" s="2">
+        <v>53761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
-        <v>100730</v>
-      </c>
-      <c r="C7" s="3">
-        <v>103317</v>
-      </c>
-      <c r="D7" s="3">
-        <v>106506</v>
-      </c>
-      <c r="E7" s="3">
-        <v>111148</v>
-      </c>
-      <c r="F7" s="3">
-        <v>113496</v>
-      </c>
-      <c r="G7" s="3">
-        <v>72887</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="22">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="2">
+        <v>53149</v>
+      </c>
+      <c r="C9" s="2">
+        <v>56688</v>
+      </c>
+      <c r="D9" s="2">
+        <v>57244</v>
+      </c>
+      <c r="E9" s="2">
+        <v>56232</v>
+      </c>
+      <c r="F9" s="2">
+        <v>57804</v>
+      </c>
+      <c r="G9" s="2">
+        <v>55398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
-        <v>65995</v>
-      </c>
-      <c r="C8" s="3">
-        <v>69062</v>
-      </c>
-      <c r="D8" s="3">
-        <v>72861</v>
-      </c>
-      <c r="E8" s="3">
-        <v>73834</v>
-      </c>
-      <c r="F8" s="3">
-        <v>72883</v>
-      </c>
-      <c r="G8" s="3">
-        <v>60742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="22">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="2">
+        <v>46750</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45968</v>
+      </c>
+      <c r="D10" s="2">
+        <v>47670</v>
+      </c>
+      <c r="E10" s="2">
+        <v>49880</v>
+      </c>
+      <c r="F10" s="2">
+        <v>49985</v>
+      </c>
+      <c r="G10" s="2">
+        <v>49322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>119242</v>
-      </c>
-      <c r="C9" s="3">
-        <v>124631</v>
-      </c>
-      <c r="D9" s="3">
-        <v>126614</v>
-      </c>
-      <c r="E9" s="3">
-        <v>124790</v>
-      </c>
-      <c r="F9" s="3">
-        <v>134235</v>
-      </c>
-      <c r="G9" s="3">
-        <v>107188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="22">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="2">
+        <v>18860</v>
+      </c>
+      <c r="C11" s="2">
+        <v>18683</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18990</v>
+      </c>
+      <c r="E11" s="2">
+        <v>19530</v>
+      </c>
+      <c r="F11" s="2">
+        <v>19514</v>
+      </c>
+      <c r="G11" s="2">
+        <v>18963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
-        <v>76050</v>
-      </c>
-      <c r="C10" s="3">
-        <v>84102</v>
-      </c>
-      <c r="D10" s="3">
-        <v>77871</v>
-      </c>
-      <c r="E10" s="3">
-        <v>79562</v>
-      </c>
-      <c r="F10" s="3">
-        <v>80508</v>
-      </c>
-      <c r="G10" s="3">
-        <v>53761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="22">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="2">
+        <v>101936</v>
+      </c>
+      <c r="C12" s="2">
+        <v>103693</v>
+      </c>
+      <c r="D12" s="2">
+        <v>105695</v>
+      </c>
+      <c r="E12" s="2">
+        <v>104660</v>
+      </c>
+      <c r="F12" s="2">
+        <v>104444</v>
+      </c>
+      <c r="G12" s="2">
+        <v>100785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>53149</v>
-      </c>
-      <c r="C11" s="3">
-        <v>56688</v>
-      </c>
-      <c r="D11" s="3">
-        <v>57244</v>
-      </c>
-      <c r="E11" s="3">
-        <v>56232</v>
-      </c>
-      <c r="F11" s="3">
-        <v>57804</v>
-      </c>
-      <c r="G11" s="3">
-        <v>55398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="22">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="2">
+        <v>85835</v>
+      </c>
+      <c r="C13" s="2">
+        <v>88217</v>
+      </c>
+      <c r="D13" s="2">
+        <v>89508</v>
+      </c>
+      <c r="E13" s="2">
+        <v>94195</v>
+      </c>
+      <c r="F13" s="2">
+        <v>97136</v>
+      </c>
+      <c r="G13" s="2">
+        <v>85695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
-        <v>46750</v>
-      </c>
-      <c r="C12" s="3">
-        <v>45968</v>
-      </c>
-      <c r="D12" s="3">
-        <v>47670</v>
-      </c>
-      <c r="E12" s="3">
-        <v>49880</v>
-      </c>
-      <c r="F12" s="3">
-        <v>49985</v>
-      </c>
-      <c r="G12" s="3">
-        <v>49322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="22">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="2">
+        <v>78245</v>
+      </c>
+      <c r="C14" s="2">
+        <v>81979</v>
+      </c>
+      <c r="D14" s="2">
+        <v>82404</v>
+      </c>
+      <c r="E14" s="2">
+        <v>81110</v>
+      </c>
+      <c r="F14" s="2">
+        <v>80337</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
-        <v>18860</v>
-      </c>
-      <c r="C13" s="3">
-        <v>18683</v>
-      </c>
-      <c r="D13" s="3">
-        <v>18990</v>
-      </c>
-      <c r="E13" s="3">
-        <v>19530</v>
-      </c>
-      <c r="F13" s="3">
-        <v>19514</v>
-      </c>
-      <c r="G13" s="3">
-        <v>18963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="22">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
-        <v>101936</v>
-      </c>
-      <c r="C14" s="3">
-        <v>103693</v>
-      </c>
-      <c r="D14" s="3">
-        <v>105695</v>
-      </c>
-      <c r="E14" s="3">
-        <v>104660</v>
-      </c>
-      <c r="F14" s="3">
-        <v>104444</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="22">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2">
+        <v>55631</v>
+      </c>
+      <c r="C15" s="2">
+        <v>55889</v>
+      </c>
+      <c r="D15" s="2">
+        <v>56250</v>
+      </c>
+      <c r="E15" s="2">
+        <v>57454</v>
+      </c>
+      <c r="F15" s="2">
+        <v>57303</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
-        <v>85835</v>
-      </c>
-      <c r="C15" s="3">
-        <v>88217</v>
-      </c>
-      <c r="D15" s="3">
-        <v>89508</v>
-      </c>
-      <c r="E15" s="3">
-        <v>94195</v>
-      </c>
-      <c r="F15" s="3">
-        <v>97136</v>
-      </c>
-      <c r="G15" s="3">
-        <v>85695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="22">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3">
-        <v>78245</v>
-      </c>
-      <c r="C16" s="3">
-        <v>81979</v>
-      </c>
-      <c r="D16" s="3">
-        <v>82404</v>
-      </c>
-      <c r="E16" s="3">
-        <v>81110</v>
-      </c>
-      <c r="F16" s="3">
-        <v>80337</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="22">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3">
-        <v>55631</v>
-      </c>
-      <c r="C17" s="3">
-        <v>55889</v>
-      </c>
-      <c r="D17" s="3">
-        <v>56250</v>
-      </c>
-      <c r="E17" s="3">
-        <v>57454</v>
-      </c>
-      <c r="F17" s="3">
-        <v>57303</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="22">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="B16" s="2">
         <v>63031</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C16" s="2">
         <v>65474</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D16" s="2">
         <v>66707</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E16" s="2">
         <v>65399</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F16" s="2">
         <v>64953</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G16" s="2">
         <v>55375</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>